--- a/data/georgia_census/imereti/vani/education_graduates.xlsx
+++ b/data/georgia_census/imereti/vani/education_graduates.xlsx
@@ -1809,13 +1809,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C353019-5109-41D2-91DD-44B49E9394DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0160DC0-C8FC-473A-BFAC-AB9FE2E90B37}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06EB2530-D474-4D00-9E01-EB710B9AAEBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749DA904-0F9D-4A10-A66B-D66B6C06F773}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D190C418-D360-4F68-9B60-E2A388642008}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030FC3D6-C869-44B3-9A12-4D02C8C990D8}"/>
 </file>